--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-580767.2276555803</v>
+        <v>-525790.6689717715</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17369085.08859304</v>
+        <v>16732119.5794859</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484445</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9340263.287458153</v>
+        <v>9347119.683162101</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>349.3178942517236</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,13 +668,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>225.9481222508939</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>259.5510749747775</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -826,16 +826,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>83.49545568307893</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>218.8819414196628</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.47024441924888</v>
+        <v>316.7258147028452</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1060,10 +1060,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>229.8635849988177</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>252.7803979867307</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>335.4789331224957</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1139,16 +1139,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>56.47750896518581</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1190,13 +1190,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1294,19 +1294,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>66.66413266361222</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1376,13 +1376,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>91.80277181981695</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>152.7511094554984</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1421,10 +1421,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950065</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,13 +1588,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>107.3792913045958</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>152.4109939334039</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>27.54427437079636</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1816,7 +1816,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>205.7065470899263</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.013320950111</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>160.2107910463831</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>229.9363968614107</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2005,7 +2005,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776683</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>82.62483121292207</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>215.0807184598025</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>398.030861400608</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>18.05677735225779</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>103.3456594571963</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225797</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>43.48898701015895</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225831</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225762</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>154.60038406286</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730228</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856833</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432407</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934494</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>141.413244676236</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402855</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925456</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
@@ -3670,16 +3670,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432345</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934719</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
@@ -3907,16 +3907,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432346</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1070.507992004495</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>632.3655191879188</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>600.4961384027674</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>570.7617976014667</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>2324.236149610439</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>2324.236149610439</v>
       </c>
       <c r="X2" t="n">
-        <v>510.5685620045878</v>
+        <v>1905.09368618975</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.3228423446453</v>
+        <v>1496.807562489403</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>630.8013258914481</v>
+        <v>1128.138272039507</v>
       </c>
       <c r="C4" t="n">
-        <v>458.239614374673</v>
+        <v>955.5765605227324</v>
       </c>
       <c r="D4" t="n">
-        <v>292.3616215761957</v>
+        <v>789.6985677242551</v>
       </c>
       <c r="E4" t="n">
-        <v>122.603617826933</v>
+        <v>619.9405639749923</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>443.2335099367485</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>277.6422349625762</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7400606529507</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1235.38760622724</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1235.38760622724</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>2124.33055796836</v>
       </c>
       <c r="V4" t="n">
-        <v>1516.524240083786</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W4" t="n">
-        <v>1295.431369962914</v>
+        <v>1565.348645425082</v>
       </c>
       <c r="X4" t="n">
-        <v>1050.039615296327</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y4" t="n">
-        <v>822.6199446104351</v>
+        <v>1319.956890758495</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>1560.335719634342</v>
       </c>
       <c r="C5" t="n">
-        <v>812.5785571901426</v>
+        <v>1526.233650858169</v>
       </c>
       <c r="D5" t="n">
-        <v>780.7091764049912</v>
+        <v>1090.323866032614</v>
       </c>
       <c r="E5" t="n">
-        <v>750.9412527491843</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F5" t="n">
-        <v>323.0738231583921</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1586.840605738788</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1582.594886078846</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>319.8519551513677</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>785.9943193530034</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>613.4326078362284</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>1443.580169393044</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1443.580169393044</v>
+        <v>2009.606275967748</v>
       </c>
       <c r="V7" t="n">
-        <v>1443.580169393044</v>
+        <v>1722.650767838178</v>
       </c>
       <c r="W7" t="n">
-        <v>1443.580169393044</v>
+        <v>1450.62436342447</v>
       </c>
       <c r="X7" t="n">
-        <v>1443.580169393044</v>
+        <v>1205.232608757882</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>977.8129380719906</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1697.843500608902</v>
+        <v>577.3912258549058</v>
       </c>
       <c r="C8" t="n">
-        <v>1663.741431832729</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D8" t="n">
-        <v>1227.831647007174</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>794.056902165469</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>737.0089133117459</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>335.6110819350098</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>46.48092737822607</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>46.06413800536608</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>481.318825458284</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1051.362533274689</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1587.554049556652</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>1587.554049556652</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>1587.554049556652</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1587.554049556652</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1587.554049556652</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2134.052835515247</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2303.206900268304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2219.555026452141</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1999.487799325179</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1740.265496642196</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1740.265496642196</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.450446093634</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1724.348386713348</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1720.102667053406</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>552.2358829966589</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>445.7794218333012</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>350.6891329798544</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>256.5687183068081</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>173.1848799229697</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>87.79979018915361</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>46.06413800536608</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>72.12781116582367</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>396.686136132036</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>966.7298439484412</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>966.7298439484412</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>966.7298439484412</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>966.7298439484412</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>966.7298439484412</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1051.39218275776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1592.131121389835</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1709.303899484175</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1645.848461932558</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1515.66981826316</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1339.333271263128</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1140.215753325127</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>954.8929990583213</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>800.0255632972013</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>673.5397840764221</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>374.6233064884883</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>202.0615949717132</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>202.0615949717132</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>134.7240872306907</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>134.7240872306907</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>134.7240872306907</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>134.7240872306907</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>46.06413800536608</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>46.06413800536608</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>216.0782049656618</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>634.2880867336229</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1093.771953914536</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1536.03075707218</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1955.700006297962</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2303.206900268304</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2303.206900268304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2281.789078973676</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2122.547710271672</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1876.668263850127</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1598.235263103233</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1311.279754973663</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1039.253350559955</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>793.8615958933672</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>566.4419252074754</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2176.404112101815</v>
+        <v>2271.46308084021</v>
       </c>
       <c r="C11" t="n">
-        <v>1738.261639285238</v>
+        <v>1833.320608023634</v>
       </c>
       <c r="D11" t="n">
-        <v>1302.351854459683</v>
+        <v>1397.410823198078</v>
       </c>
       <c r="E11" t="n">
-        <v>1209.621781914413</v>
+        <v>963.6360783563732</v>
       </c>
       <c r="F11" t="n">
-        <v>781.7543523236208</v>
+        <v>535.768648765581</v>
       </c>
       <c r="G11" t="n">
-        <v>380.3565209468846</v>
+        <v>381.4745988105321</v>
       </c>
       <c r="H11" t="n">
-        <v>91.22636639010089</v>
+        <v>92.34444425374836</v>
       </c>
       <c r="I11" t="n">
-        <v>90.8095770172409</v>
+        <v>91.92765488088837</v>
       </c>
       <c r="J11" t="n">
-        <v>90.8095770172409</v>
+        <v>527.1823423338062</v>
       </c>
       <c r="K11" t="n">
-        <v>237.7021868621677</v>
+        <v>527.1823423338062</v>
       </c>
       <c r="L11" t="n">
-        <v>1312.762153115027</v>
+        <v>1602.242308586666</v>
       </c>
       <c r="M11" t="n">
-        <v>2436.530668703383</v>
+        <v>2739.847037737659</v>
       </c>
       <c r="N11" t="n">
-        <v>3560.299184291739</v>
+        <v>3865.578021174106</v>
       </c>
       <c r="O11" t="n">
-        <v>4540.478850862045</v>
+        <v>3880.729893332767</v>
       </c>
       <c r="P11" t="n">
-        <v>4540.478850862045</v>
+        <v>3880.729893332767</v>
       </c>
       <c r="Q11" t="n">
-        <v>4540.478850862045</v>
+        <v>4427.228679291362</v>
       </c>
       <c r="R11" t="n">
-        <v>4540.478850862045</v>
+        <v>4596.382744044418</v>
       </c>
       <c r="S11" t="n">
-        <v>4456.826977045882</v>
+        <v>4512.730870228255</v>
       </c>
       <c r="T11" t="n">
-        <v>4456.826977045882</v>
+        <v>4292.663643101294</v>
       </c>
       <c r="U11" t="n">
-        <v>4197.604674362899</v>
+        <v>4292.663643101294</v>
       </c>
       <c r="V11" t="n">
-        <v>3834.987724296725</v>
+        <v>3930.04669303512</v>
       </c>
       <c r="W11" t="n">
-        <v>3430.132269707758</v>
+        <v>3525.191238446154</v>
       </c>
       <c r="X11" t="n">
-        <v>3010.989806287069</v>
+        <v>3106.048775025465</v>
       </c>
       <c r="Y11" t="n">
-        <v>2602.703682586723</v>
+        <v>2697.762651325118</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>596.9813220085337</v>
+        <v>598.0993998721812</v>
       </c>
       <c r="C12" t="n">
-        <v>490.524860845176</v>
+        <v>491.6429387088235</v>
       </c>
       <c r="D12" t="n">
-        <v>395.4345719917292</v>
+        <v>396.5526498553767</v>
       </c>
       <c r="E12" t="n">
-        <v>301.3141573186829</v>
+        <v>302.4322351823304</v>
       </c>
       <c r="F12" t="n">
-        <v>217.9303189348445</v>
+        <v>219.048396798492</v>
       </c>
       <c r="G12" t="n">
-        <v>132.5452292010284</v>
+        <v>133.6633070646759</v>
       </c>
       <c r="H12" t="n">
-        <v>90.8095770172409</v>
+        <v>91.92765488088837</v>
       </c>
       <c r="I12" t="n">
-        <v>116.8732501776985</v>
+        <v>117.991328041346</v>
       </c>
       <c r="J12" t="n">
-        <v>441.4315751439108</v>
+        <v>442.5496530075583</v>
       </c>
       <c r="K12" t="n">
-        <v>1122.165095214288</v>
+        <v>1097.255699633282</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.165095214288</v>
+        <v>1097.255699633282</v>
       </c>
       <c r="M12" t="n">
-        <v>1122.165095214288</v>
+        <v>1097.255699633282</v>
       </c>
       <c r="N12" t="n">
-        <v>1122.165095214288</v>
+        <v>1097.255699633282</v>
       </c>
       <c r="O12" t="n">
-        <v>1122.165095214288</v>
+        <v>1097.255699633282</v>
       </c>
       <c r="P12" t="n">
-        <v>1122.165095214288</v>
+        <v>1097.255699633282</v>
       </c>
       <c r="Q12" t="n">
-        <v>1636.87656040171</v>
+        <v>1637.994638265357</v>
       </c>
       <c r="R12" t="n">
-        <v>1754.04933849605</v>
+        <v>1755.167416359697</v>
       </c>
       <c r="S12" t="n">
-        <v>1690.593900944433</v>
+        <v>1691.71197880808</v>
       </c>
       <c r="T12" t="n">
-        <v>1560.415257275034</v>
+        <v>1561.533335138682</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.078710275003</v>
+        <v>1385.19678813865</v>
       </c>
       <c r="V12" t="n">
-        <v>1184.961192337002</v>
+        <v>1186.079270200649</v>
       </c>
       <c r="W12" t="n">
-        <v>999.6384380701961</v>
+        <v>1000.756515933844</v>
       </c>
       <c r="X12" t="n">
-        <v>844.771002309076</v>
+        <v>845.8890801727235</v>
       </c>
       <c r="Y12" t="n">
-        <v>718.2852230882968</v>
+        <v>719.4033009519443</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1169.867737629122</v>
+        <v>939.245039705876</v>
       </c>
       <c r="C13" t="n">
-        <v>997.3060261123474</v>
+        <v>766.683328189101</v>
       </c>
       <c r="D13" t="n">
-        <v>831.4280333138701</v>
+        <v>600.8053353906237</v>
       </c>
       <c r="E13" t="n">
-        <v>661.6700295646073</v>
+        <v>431.0473316413609</v>
       </c>
       <c r="F13" t="n">
-        <v>484.9629755263634</v>
+        <v>254.3402776031171</v>
       </c>
       <c r="G13" t="n">
-        <v>319.371700552191</v>
+        <v>91.92765488088837</v>
       </c>
       <c r="H13" t="n">
-        <v>179.4695262425656</v>
+        <v>91.92765488088837</v>
       </c>
       <c r="I13" t="n">
-        <v>90.8095770172409</v>
+        <v>91.92765488088837</v>
       </c>
       <c r="J13" t="n">
-        <v>177.3892621819307</v>
+        <v>178.5073400455782</v>
       </c>
       <c r="K13" t="n">
-        <v>452.1477167530663</v>
+        <v>453.2657946167138</v>
       </c>
       <c r="L13" t="n">
-        <v>870.3575985210274</v>
+        <v>871.4756763846749</v>
       </c>
       <c r="M13" t="n">
-        <v>1329.84146570194</v>
+        <v>1330.959543565588</v>
       </c>
       <c r="N13" t="n">
-        <v>1772.100268859585</v>
+        <v>1773.218346723232</v>
       </c>
       <c r="O13" t="n">
-        <v>2191.769518085366</v>
+        <v>2192.887595949014</v>
       </c>
       <c r="P13" t="n">
-        <v>2539.276412055708</v>
+        <v>2540.394489919356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2707.469186920041</v>
+        <v>2708.587264783688</v>
       </c>
       <c r="R13" t="n">
-        <v>2686.051365625412</v>
+        <v>2687.16944348906</v>
       </c>
       <c r="S13" t="n">
-        <v>2526.809996923409</v>
+        <v>2687.16944348906</v>
       </c>
       <c r="T13" t="n">
-        <v>2280.930550501864</v>
+        <v>2441.289997067515</v>
       </c>
       <c r="U13" t="n">
-        <v>2002.497549754969</v>
+        <v>2162.856996320621</v>
       </c>
       <c r="V13" t="n">
-        <v>1715.5420416254</v>
+        <v>1875.901488191051</v>
       </c>
       <c r="W13" t="n">
-        <v>1715.5420416254</v>
+        <v>1603.875083777343</v>
       </c>
       <c r="X13" t="n">
-        <v>1470.150286958812</v>
+        <v>1358.483329110755</v>
       </c>
       <c r="Y13" t="n">
-        <v>1361.686356348109</v>
+        <v>1131.063658424863</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2274.695588539106</v>
+        <v>2522.844209483999</v>
       </c>
       <c r="C14" t="n">
-        <v>1836.553115722529</v>
+        <v>2084.701736667423</v>
       </c>
       <c r="D14" t="n">
-        <v>1400.643330896974</v>
+        <v>1648.791951841867</v>
       </c>
       <c r="E14" t="n">
-        <v>966.8685860552689</v>
+        <v>1215.017207000162</v>
       </c>
       <c r="F14" t="n">
-        <v>539.0011564644767</v>
+        <v>787.14977740937</v>
       </c>
       <c r="G14" t="n">
-        <v>385.0506575418464</v>
+        <v>385.7519460326339</v>
       </c>
       <c r="H14" t="n">
-        <v>95.92050298506268</v>
+        <v>96.62179147585016</v>
       </c>
       <c r="I14" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585016</v>
       </c>
       <c r="J14" t="n">
-        <v>95.50371361220269</v>
+        <v>531.8764789287681</v>
       </c>
       <c r="K14" t="n">
-        <v>95.50371361220269</v>
+        <v>1366.226770886946</v>
       </c>
       <c r="L14" t="n">
-        <v>95.50371361220269</v>
+        <v>2441.286737139805</v>
       </c>
       <c r="M14" t="n">
-        <v>1252.551548822753</v>
+        <v>2441.286737139805</v>
       </c>
       <c r="N14" t="n">
-        <v>2378.2825322592</v>
+        <v>2441.286737139805</v>
       </c>
       <c r="O14" t="n">
-        <v>3358.462198829507</v>
+        <v>3421.466403710112</v>
       </c>
       <c r="P14" t="n">
-        <v>4186.772073662903</v>
+        <v>4249.776278543507</v>
       </c>
       <c r="Q14" t="n">
-        <v>4733.270859621498</v>
+        <v>4796.275064502102</v>
       </c>
       <c r="R14" t="n">
-        <v>4775.185680610134</v>
+        <v>4831.089573792508</v>
       </c>
       <c r="S14" t="n">
-        <v>4775.185680610134</v>
+        <v>4803.267074428067</v>
       </c>
       <c r="T14" t="n">
-        <v>4555.118453483173</v>
+        <v>4803.267074428067</v>
       </c>
       <c r="U14" t="n">
-        <v>4295.89615080019</v>
+        <v>4544.044771745083</v>
       </c>
       <c r="V14" t="n">
-        <v>3933.279200734017</v>
+        <v>4181.42782167891</v>
       </c>
       <c r="W14" t="n">
-        <v>3528.42374614505</v>
+        <v>3776.572367089943</v>
       </c>
       <c r="X14" t="n">
-        <v>3109.281282724361</v>
+        <v>3357.429903669254</v>
       </c>
       <c r="Y14" t="n">
-        <v>2700.995159024014</v>
+        <v>2949.143779968907</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>601.6754586034955</v>
+        <v>602.793536467143</v>
       </c>
       <c r="C15" t="n">
-        <v>495.2189974401377</v>
+        <v>496.3370753037852</v>
       </c>
       <c r="D15" t="n">
-        <v>400.128708586691</v>
+        <v>401.2467864503385</v>
       </c>
       <c r="E15" t="n">
-        <v>306.0082939136447</v>
+        <v>307.1263717772922</v>
       </c>
       <c r="F15" t="n">
-        <v>222.6244555298063</v>
+        <v>223.7425333934538</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2393657959902</v>
+        <v>138.3574436596377</v>
       </c>
       <c r="H15" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585016</v>
       </c>
       <c r="I15" t="n">
-        <v>121.5673867726603</v>
+        <v>122.6854646363078</v>
       </c>
       <c r="J15" t="n">
-        <v>420.0982382942188</v>
+        <v>447.2437896025201</v>
       </c>
       <c r="K15" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="L15" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="M15" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="O15" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="P15" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="Q15" t="n">
-        <v>1641.570696996672</v>
+        <v>1642.688774860319</v>
       </c>
       <c r="R15" t="n">
-        <v>1758.743475091012</v>
+        <v>1759.861552954659</v>
       </c>
       <c r="S15" t="n">
-        <v>1695.288037539395</v>
+        <v>1696.406115403042</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.109393869996</v>
+        <v>1566.227471733644</v>
       </c>
       <c r="U15" t="n">
-        <v>1388.772846869964</v>
+        <v>1389.890924733612</v>
       </c>
       <c r="V15" t="n">
-        <v>1189.655328931964</v>
+        <v>1190.773406795611</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.332574665158</v>
+        <v>1005.450652528805</v>
       </c>
       <c r="X15" t="n">
-        <v>849.4651389040379</v>
+        <v>850.5832167676854</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.9793596832586</v>
+        <v>724.0974375469061</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1002.000162707309</v>
+        <v>844.2106843150819</v>
       </c>
       <c r="C16" t="n">
-        <v>1002.000162707309</v>
+        <v>671.6489727983069</v>
       </c>
       <c r="D16" t="n">
-        <v>836.1221699088318</v>
+        <v>671.6489727983069</v>
       </c>
       <c r="E16" t="n">
-        <v>666.364166159569</v>
+        <v>501.8909690490441</v>
       </c>
       <c r="F16" t="n">
-        <v>489.6571121213252</v>
+        <v>325.1839150108003</v>
       </c>
       <c r="G16" t="n">
-        <v>324.0658371471528</v>
+        <v>325.1839150108003</v>
       </c>
       <c r="H16" t="n">
-        <v>184.1636628375273</v>
+        <v>185.2817407011748</v>
       </c>
       <c r="I16" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585016</v>
       </c>
       <c r="J16" t="n">
-        <v>182.0833987768926</v>
+        <v>183.20147664054</v>
       </c>
       <c r="K16" t="n">
-        <v>456.8418533480281</v>
+        <v>457.9599312116756</v>
       </c>
       <c r="L16" t="n">
-        <v>875.0517351159892</v>
+        <v>876.1698129796366</v>
       </c>
       <c r="M16" t="n">
-        <v>1334.535602296902</v>
+        <v>1335.65368016055</v>
       </c>
       <c r="N16" t="n">
-        <v>1776.794405454547</v>
+        <v>1777.912483318194</v>
       </c>
       <c r="O16" t="n">
-        <v>2196.463654680328</v>
+        <v>2197.581732543976</v>
       </c>
       <c r="P16" t="n">
-        <v>2543.97054865067</v>
+        <v>2545.088626514318</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.163323515002</v>
+        <v>2713.28140137865</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.163323515003</v>
+        <v>2713.28140137865</v>
       </c>
       <c r="S16" t="n">
-        <v>2552.921954812999</v>
+        <v>2554.040032676647</v>
       </c>
       <c r="T16" t="n">
-        <v>2307.042508391454</v>
+        <v>2346.255641676721</v>
       </c>
       <c r="U16" t="n">
-        <v>2028.609507644559</v>
+        <v>2067.822640929826</v>
       </c>
       <c r="V16" t="n">
-        <v>1741.65399951499</v>
+        <v>1780.867132800257</v>
       </c>
       <c r="W16" t="n">
-        <v>1469.627595101281</v>
+        <v>1508.840728386548</v>
       </c>
       <c r="X16" t="n">
-        <v>1224.235840434694</v>
+        <v>1263.448973719961</v>
       </c>
       <c r="Y16" t="n">
-        <v>1002.000162707309</v>
+        <v>1036.029303034069</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2521.726131620352</v>
+        <v>2246.947607905316</v>
       </c>
       <c r="C17" t="n">
-        <v>2083.583658803775</v>
+        <v>2085.118526040283</v>
       </c>
       <c r="D17" t="n">
-        <v>1647.67387397822</v>
+        <v>1649.208741214727</v>
       </c>
       <c r="E17" t="n">
-        <v>1213.899129136515</v>
+        <v>1215.433996373022</v>
       </c>
       <c r="F17" t="n">
-        <v>786.0316995457225</v>
+        <v>787.56656678223</v>
       </c>
       <c r="G17" t="n">
-        <v>384.6338681689864</v>
+        <v>386.1687354054939</v>
       </c>
       <c r="H17" t="n">
-        <v>95.50371361220269</v>
+        <v>97.03858084871015</v>
       </c>
       <c r="I17" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585016</v>
       </c>
       <c r="J17" t="n">
-        <v>290.9620131001553</v>
+        <v>531.8764789287681</v>
       </c>
       <c r="K17" t="n">
-        <v>1125.312305058333</v>
+        <v>1366.226770886946</v>
       </c>
       <c r="L17" t="n">
-        <v>1125.312305058333</v>
+        <v>2441.286737139805</v>
       </c>
       <c r="M17" t="n">
-        <v>1125.312305058333</v>
+        <v>2441.286737139805</v>
       </c>
       <c r="N17" t="n">
-        <v>2251.04328849478</v>
+        <v>2441.286737139805</v>
       </c>
       <c r="O17" t="n">
-        <v>3231.222955065087</v>
+        <v>3421.466403710112</v>
       </c>
       <c r="P17" t="n">
-        <v>4059.532829898483</v>
+        <v>4249.776278543507</v>
       </c>
       <c r="Q17" t="n">
-        <v>4606.031615857078</v>
+        <v>4796.275064502102</v>
       </c>
       <c r="R17" t="n">
-        <v>4775.185680610134</v>
+        <v>4831.089573792508</v>
       </c>
       <c r="S17" t="n">
-        <v>4775.185680610134</v>
+        <v>4747.437699976344</v>
       </c>
       <c r="T17" t="n">
-        <v>4775.185680610134</v>
+        <v>4527.370472849383</v>
       </c>
       <c r="U17" t="n">
-        <v>4542.926693881436</v>
+        <v>4268.1481701664</v>
       </c>
       <c r="V17" t="n">
-        <v>4180.309743815263</v>
+        <v>3905.531220100226</v>
       </c>
       <c r="W17" t="n">
-        <v>3775.454289226296</v>
+        <v>3500.67576551126</v>
       </c>
       <c r="X17" t="n">
-        <v>3356.311825805607</v>
+        <v>3081.53330209057</v>
       </c>
       <c r="Y17" t="n">
-        <v>2948.02570210526</v>
+        <v>2673.247178390224</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>601.6754586034955</v>
+        <v>602.793536467143</v>
       </c>
       <c r="C18" t="n">
-        <v>495.2189974401377</v>
+        <v>496.3370753037852</v>
       </c>
       <c r="D18" t="n">
-        <v>400.128708586691</v>
+        <v>401.2467864503385</v>
       </c>
       <c r="E18" t="n">
-        <v>306.0082939136447</v>
+        <v>307.1263717772922</v>
       </c>
       <c r="F18" t="n">
-        <v>222.6244555298063</v>
+        <v>223.7425333934538</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2393657959902</v>
+        <v>138.3574436596377</v>
       </c>
       <c r="H18" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585016</v>
       </c>
       <c r="I18" t="n">
-        <v>121.5673867726603</v>
+        <v>122.6854646363078</v>
       </c>
       <c r="J18" t="n">
-        <v>446.1257117388726</v>
+        <v>447.2437896025201</v>
       </c>
       <c r="K18" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="L18" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="M18" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="O18" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="P18" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="Q18" t="n">
-        <v>1641.570696996672</v>
+        <v>1642.688774860319</v>
       </c>
       <c r="R18" t="n">
-        <v>1758.743475091012</v>
+        <v>1759.861552954659</v>
       </c>
       <c r="S18" t="n">
-        <v>1695.288037539395</v>
+        <v>1696.406115403042</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.109393869996</v>
+        <v>1566.227471733644</v>
       </c>
       <c r="U18" t="n">
-        <v>1388.772846869964</v>
+        <v>1389.890924733612</v>
       </c>
       <c r="V18" t="n">
-        <v>1189.655328931964</v>
+        <v>1190.773406795611</v>
       </c>
       <c r="W18" t="n">
-        <v>1004.332574665158</v>
+        <v>1005.450652528805</v>
       </c>
       <c r="X18" t="n">
-        <v>849.4651389040379</v>
+        <v>850.5832167676854</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.9793596832586</v>
+        <v>724.0974375469061</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1029.459176156732</v>
+        <v>806.1156288934626</v>
       </c>
       <c r="C19" t="n">
-        <v>856.8974646399569</v>
+        <v>633.5539173766875</v>
       </c>
       <c r="D19" t="n">
-        <v>691.0194718414796</v>
+        <v>608.6781242375291</v>
       </c>
       <c r="E19" t="n">
-        <v>521.2614680922169</v>
+        <v>438.9201204882663</v>
       </c>
       <c r="F19" t="n">
-        <v>344.5544140539731</v>
+        <v>262.2130664500225</v>
       </c>
       <c r="G19" t="n">
-        <v>178.9631390798008</v>
+        <v>96.62179147585016</v>
       </c>
       <c r="H19" t="n">
-        <v>178.9631390798008</v>
+        <v>96.62179147585016</v>
       </c>
       <c r="I19" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585016</v>
       </c>
       <c r="J19" t="n">
-        <v>182.0833987768926</v>
+        <v>183.20147664054</v>
       </c>
       <c r="K19" t="n">
-        <v>456.8418533480281</v>
+        <v>457.9599312116756</v>
       </c>
       <c r="L19" t="n">
-        <v>875.0517351159892</v>
+        <v>876.1698129796366</v>
       </c>
       <c r="M19" t="n">
-        <v>1334.535602296902</v>
+        <v>1335.65368016055</v>
       </c>
       <c r="N19" t="n">
-        <v>1776.794405454547</v>
+        <v>1777.912483318194</v>
       </c>
       <c r="O19" t="n">
-        <v>2196.463654680328</v>
+        <v>2197.581732543976</v>
       </c>
       <c r="P19" t="n">
-        <v>2543.97054865067</v>
+        <v>2545.088626514318</v>
       </c>
       <c r="Q19" t="n">
-        <v>2712.163323515002</v>
+        <v>2713.28140137865</v>
       </c>
       <c r="R19" t="n">
-        <v>2690.745502220374</v>
+        <v>2713.28140137865</v>
       </c>
       <c r="S19" t="n">
-        <v>2531.504133518371</v>
+        <v>2554.040032676647</v>
       </c>
       <c r="T19" t="n">
-        <v>2531.504133518371</v>
+        <v>2308.160586255102</v>
       </c>
       <c r="U19" t="n">
-        <v>2253.071132771476</v>
+        <v>2029.727585508207</v>
       </c>
       <c r="V19" t="n">
-        <v>1966.115624641907</v>
+        <v>1742.772077378638</v>
       </c>
       <c r="W19" t="n">
-        <v>1694.089220228198</v>
+        <v>1470.745672964929</v>
       </c>
       <c r="X19" t="n">
-        <v>1448.697465561611</v>
+        <v>1225.353918298342</v>
       </c>
       <c r="Y19" t="n">
-        <v>1221.277794875719</v>
+        <v>997.9342476124498</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2450.266017405926</v>
+        <v>2523.260998856859</v>
       </c>
       <c r="C20" t="n">
-        <v>2012.123544589349</v>
+        <v>2085.118526040283</v>
       </c>
       <c r="D20" t="n">
-        <v>1576.213759763794</v>
+        <v>1649.208741214727</v>
       </c>
       <c r="E20" t="n">
-        <v>1142.439014922089</v>
+        <v>1215.433996373022</v>
       </c>
       <c r="F20" t="n">
-        <v>714.5715853312968</v>
+        <v>787.56656678223</v>
       </c>
       <c r="G20" t="n">
-        <v>313.1737539545607</v>
+        <v>386.1687354054939</v>
       </c>
       <c r="H20" t="n">
-        <v>95.92050298506268</v>
+        <v>97.03858084871015</v>
       </c>
       <c r="I20" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585016</v>
       </c>
       <c r="J20" t="n">
-        <v>341.633030283743</v>
+        <v>96.62179147585016</v>
       </c>
       <c r="K20" t="n">
-        <v>1175.983322241921</v>
+        <v>96.62179147585016</v>
       </c>
       <c r="L20" t="n">
-        <v>2251.04328849478</v>
+        <v>1171.681757728709</v>
       </c>
       <c r="M20" t="n">
-        <v>2251.04328849478</v>
+        <v>1181.216198240707</v>
       </c>
       <c r="N20" t="n">
-        <v>2251.04328849478</v>
+        <v>2306.947181677154</v>
       </c>
       <c r="O20" t="n">
-        <v>3231.222955065087</v>
+        <v>3287.12684824746</v>
       </c>
       <c r="P20" t="n">
-        <v>4059.532829898483</v>
+        <v>4115.436723080856</v>
       </c>
       <c r="Q20" t="n">
-        <v>4606.031615857078</v>
+        <v>4661.935509039451</v>
       </c>
       <c r="R20" t="n">
-        <v>4775.185680610134</v>
+        <v>4831.089573792508</v>
       </c>
       <c r="S20" t="n">
-        <v>4691.533806793971</v>
+        <v>4747.437699976344</v>
       </c>
       <c r="T20" t="n">
-        <v>4471.46657966701</v>
+        <v>4527.370472849383</v>
       </c>
       <c r="U20" t="n">
-        <v>4471.46657966701</v>
+        <v>4527.370472849383</v>
       </c>
       <c r="V20" t="n">
-        <v>4108.849629600836</v>
+        <v>4164.75352278321</v>
       </c>
       <c r="W20" t="n">
-        <v>3703.99417501187</v>
+        <v>3759.898068194243</v>
       </c>
       <c r="X20" t="n">
-        <v>3284.85171159118</v>
+        <v>3357.846693042114</v>
       </c>
       <c r="Y20" t="n">
-        <v>2876.565587890834</v>
+        <v>2949.560569341767</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>601.6754586034955</v>
+        <v>602.793536467143</v>
       </c>
       <c r="C21" t="n">
-        <v>495.2189974401377</v>
+        <v>496.3370753037852</v>
       </c>
       <c r="D21" t="n">
-        <v>400.128708586691</v>
+        <v>401.2467864503385</v>
       </c>
       <c r="E21" t="n">
-        <v>306.0082939136447</v>
+        <v>307.1263717772922</v>
       </c>
       <c r="F21" t="n">
-        <v>222.6244555298063</v>
+        <v>223.7425333934538</v>
       </c>
       <c r="G21" t="n">
-        <v>137.2393657959902</v>
+        <v>138.3574436596377</v>
       </c>
       <c r="H21" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585016</v>
       </c>
       <c r="I21" t="n">
-        <v>121.5673867726603</v>
+        <v>122.6854646363078</v>
       </c>
       <c r="J21" t="n">
-        <v>446.1257117388726</v>
+        <v>447.2437896025201</v>
       </c>
       <c r="K21" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="L21" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="M21" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="O21" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="P21" t="n">
-        <v>1100.831758364596</v>
+        <v>1101.949836228244</v>
       </c>
       <c r="Q21" t="n">
-        <v>1641.570696996672</v>
+        <v>1642.688774860319</v>
       </c>
       <c r="R21" t="n">
-        <v>1758.743475091012</v>
+        <v>1759.861552954659</v>
       </c>
       <c r="S21" t="n">
-        <v>1695.288037539395</v>
+        <v>1696.406115403042</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.109393869996</v>
+        <v>1566.227471733644</v>
       </c>
       <c r="U21" t="n">
-        <v>1388.772846869964</v>
+        <v>1389.890924733612</v>
       </c>
       <c r="V21" t="n">
-        <v>1189.655328931964</v>
+        <v>1190.773406795611</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.332574665158</v>
+        <v>1005.450652528805</v>
       </c>
       <c r="X21" t="n">
-        <v>849.4651389040379</v>
+        <v>850.5832167676854</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.9793596832586</v>
+        <v>724.0974375469061</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>945.9997506891339</v>
+        <v>965.3569975954661</v>
       </c>
       <c r="C22" t="n">
-        <v>773.4380391723588</v>
+        <v>792.795286078691</v>
       </c>
       <c r="D22" t="n">
-        <v>607.5600463738815</v>
+        <v>626.9172932802137</v>
       </c>
       <c r="E22" t="n">
-        <v>437.8020426246188</v>
+        <v>457.159289530951</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0949885863751</v>
+        <v>280.4522354927071</v>
       </c>
       <c r="G22" t="n">
-        <v>95.50371361220269</v>
+        <v>114.8609605185348</v>
       </c>
       <c r="H22" t="n">
-        <v>95.50371361220269</v>
+        <v>114.8609605185348</v>
       </c>
       <c r="I22" t="n">
-        <v>95.50371361220269</v>
+        <v>96.62179147585016</v>
       </c>
       <c r="J22" t="n">
-        <v>182.0833987768926</v>
+        <v>183.20147664054</v>
       </c>
       <c r="K22" t="n">
-        <v>456.8418533480281</v>
+        <v>457.9599312116756</v>
       </c>
       <c r="L22" t="n">
-        <v>875.0517351159892</v>
+        <v>876.1698129796366</v>
       </c>
       <c r="M22" t="n">
-        <v>1334.535602296902</v>
+        <v>1335.65368016055</v>
       </c>
       <c r="N22" t="n">
-        <v>1776.794405454547</v>
+        <v>1777.912483318194</v>
       </c>
       <c r="O22" t="n">
-        <v>2196.463654680328</v>
+        <v>2197.581732543976</v>
       </c>
       <c r="P22" t="n">
-        <v>2543.97054865067</v>
+        <v>2545.088626514318</v>
       </c>
       <c r="Q22" t="n">
-        <v>2712.163323515002</v>
+        <v>2713.28140137865</v>
       </c>
       <c r="R22" t="n">
-        <v>2712.163323515003</v>
+        <v>2713.28140137865</v>
       </c>
       <c r="S22" t="n">
-        <v>2552.921954812999</v>
+        <v>2713.28140137865</v>
       </c>
       <c r="T22" t="n">
-        <v>2307.042508391455</v>
+        <v>2467.401954957105</v>
       </c>
       <c r="U22" t="n">
-        <v>2028.60950764456</v>
+        <v>2188.968954210211</v>
       </c>
       <c r="V22" t="n">
-        <v>1741.65399951499</v>
+        <v>1902.013446080641</v>
       </c>
       <c r="W22" t="n">
-        <v>1469.627595101282</v>
+        <v>1629.987041666933</v>
       </c>
       <c r="X22" t="n">
-        <v>1365.238040094013</v>
+        <v>1384.595287000345</v>
       </c>
       <c r="Y22" t="n">
-        <v>1137.818369408121</v>
+        <v>1157.175616314453</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903958</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736207</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751434</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258806</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>286.0912842876369</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>120.5000093134645</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6175,22 +6175,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752035</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.60800300514</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.652494875571</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461862</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795275</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109383</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903951</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736201</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751428</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>462.79833832588</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>286.0912842876364</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
         <v>242.1630145804051</v>
@@ -6412,22 +6412,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461862</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6467,10 +6467,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6607,7 +6607,7 @@
         <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449518</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6634,16 +6634,16 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
         <v>2700.681281130895</v>
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992528</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886285</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030273</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666408</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412733</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799776</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832282</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708293</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773248</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896918</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751064</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956766</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056458</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174706</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.647500885579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.16776187691</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542891</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571654</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298639</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
@@ -7172,25 +7172,25 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>540.3167323207291</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>1615.376698573589</v>
+        <v>1397.615872992149</v>
       </c>
       <c r="M38" t="n">
-        <v>2772.424533784139</v>
+        <v>1397.615872992149</v>
       </c>
       <c r="N38" t="n">
-        <v>3898.155517220586</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O38" t="n">
-        <v>4878.335183790892</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P38" t="n">
-        <v>4878.335183790892</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q38" t="n">
         <v>4878.335183790892</v>
@@ -7199,13 +7199,13 @@
         <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
@@ -7214,7 +7214,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y38" t="n">
         <v>2835.290740278742</v>
@@ -7309,22 +7309,22 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936673</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463119</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882658</v>
       </c>
       <c r="I40" t="n">
         <v>97.56670367581785</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7372,7 +7372,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7388,7 +7388,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
@@ -7400,13 +7400,13 @@
         <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197252</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7424,16 +7424,16 @@
         <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
         <v>4811.083017387605</v>
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7546,25 +7546,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463119</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882658</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7585,10 +7585,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
         <v>2837.795025579744</v>
@@ -7600,7 +7600,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
@@ -7609,7 +7609,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7631,52 +7631,52 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>532.8213911287357</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>1607.881357381595</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2764.929192592146</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>3890.660176028593</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>4870.8398425989</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P44" t="n">
-        <v>4870.8398425989</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q44" t="n">
-        <v>4870.8398425989</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
         <v>4364.592902403413</v>
@@ -7685,13 +7685,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X44" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="L45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="M45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="N45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="O45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7783,7 +7783,7 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936673</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
         <v>756.1866229080662</v>
@@ -7792,16 +7792,16 @@
         <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850156</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H46" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7816,22 +7816,22 @@
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
         <v>2465.473625281949</v>
@@ -7840,16 +7840,16 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,19 +8140,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,16 +8289,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>288.7962490401609</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>575.8017250670759</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>541.6075922040029</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>575.8017250670759</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>85.51751394880671</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>171.7313807679755</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>148.3763735807341</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1135.119712715511</v>
+        <v>1149.095686011105</v>
       </c>
       <c r="N11" t="n">
-        <v>1135.119712715511</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>15.30492137238525</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>42.33820301882406</v>
+        <v>35.16617100040912</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>301.5463146682409</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>197.4326257454067</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>35.16617100040912</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>248.6154713853943</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>9.630747991916223</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9954,22 +9954,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10115,13 +10115,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10191,22 +10191,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,22 +10428,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,13 +10601,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>447.2222511564761</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>30.7517069749847</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10838,10 +10838,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>901.1523322283551</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497184</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11297,28 +11297,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>901.1523322283551</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>7.571051709083804</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>99.43970559073428</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>337.6342255734708</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>244.6327436074703</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.146865729424121</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.766182674437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>244.9728591295649</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>55.271080707205</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>37.71410486740299</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.132153028921836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>273.5502570420278</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>26.69368279474261</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>5.148518520149338</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>71.15813455141341</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>16.92017738587435</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081363</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142713</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.592177662725</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627257</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>823756.8094282242</v>
+        <v>814082.1743818693</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>823756.8094282242</v>
+        <v>826251.1098397577</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>825310.5556625988</v>
+        <v>826251.1098397577</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>748336.5576570656</v>
+        <v>755030.6283001017</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>776440.9348175484</v>
+        <v>783135.0054605842</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>776440.9348175481</v>
+        <v>783135.0054605844</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>776440.9348175483</v>
+        <v>783135.0054605844</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>831063.5360125831</v>
+        <v>816896.6889891723</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120633.1469753419</v>
+        <v>118837.7302684404</v>
       </c>
       <c r="C2" t="n">
         <v>120633.1469753419</v>
@@ -26320,22 +26320,22 @@
         <v>120633.1469753419</v>
       </c>
       <c r="E2" t="n">
-        <v>108593.937453418</v>
+        <v>109565.3392662528</v>
       </c>
       <c r="F2" t="n">
-        <v>112672.2695144467</v>
+        <v>113643.6713272815</v>
       </c>
       <c r="G2" t="n">
-        <v>112672.2695144467</v>
+        <v>113643.6713272816</v>
       </c>
       <c r="H2" t="n">
-        <v>112672.2695144467</v>
+        <v>113643.6713272816</v>
       </c>
       <c r="I2" t="n">
         <v>118542.9564309043</v>
       </c>
       <c r="J2" t="n">
-        <v>118542.9564309043</v>
+        <v>118542.9564309042</v>
       </c>
       <c r="K2" t="n">
         <v>118542.9564309043</v>
@@ -26344,16 +26344,16 @@
         <v>118542.9564309043</v>
       </c>
       <c r="M2" t="n">
+        <v>118542.9564309043</v>
+      </c>
+      <c r="N2" t="n">
         <v>120633.1469753418</v>
       </c>
-      <c r="N2" t="n">
-        <v>120633.1469753419</v>
-      </c>
       <c r="O2" t="n">
-        <v>120633.1469753419</v>
+        <v>120633.1469753418</v>
       </c>
       <c r="P2" t="n">
-        <v>120633.1469753419</v>
+        <v>120633.1469753418</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>47062.26763611577</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>167000.0461160945</v>
+        <v>143789.3363792629</v>
       </c>
       <c r="F3" t="n">
         <v>16812.40227510025</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22460.77347719299</v>
+        <v>18744.2686824555</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>38344.77152333058</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>152372.8480649385</v>
+        <v>120011.7817892069</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>12988.5682709979</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>117576.3432552488</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="D4" t="n">
-        <v>142180.0375455024</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
-        <v>13049.64047893334</v>
+        <v>13166.3730030074</v>
       </c>
       <c r="F4" t="n">
-        <v>13539.73015058708</v>
+        <v>13656.46267466114</v>
       </c>
       <c r="G4" t="n">
-        <v>13539.73015058708</v>
+        <v>13656.46267466114</v>
       </c>
       <c r="H4" t="n">
-        <v>13539.73015058708</v>
+        <v>13656.46267466114</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26448,16 +26448,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>19587.56338712589</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="N4" t="n">
-        <v>29443.15222066922</v>
+        <v>29443.15222066924</v>
       </c>
       <c r="O4" t="n">
         <v>29443.15222066924</v>
       </c>
       <c r="P4" t="n">
-        <v>29443.15222066925</v>
+        <v>29443.15222066924</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>68636.34488407822</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>69015.27853310308</v>
+        <v>69865.01770947516</v>
       </c>
       <c r="F5" t="n">
-        <v>72582.82234527403</v>
+        <v>73432.56152164612</v>
       </c>
       <c r="G5" t="n">
-        <v>72582.82234527403</v>
+        <v>73432.56152164612</v>
       </c>
       <c r="H5" t="n">
-        <v>72582.82234527403</v>
+        <v>73432.56152164612</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-256283.1816867013</v>
+        <v>-296670.7852071321</v>
       </c>
       <c r="C6" t="n">
-        <v>-114091.8810269914</v>
+        <v>-75710.23081155108</v>
       </c>
       <c r="D6" t="n">
-        <v>-137245.5030903545</v>
+        <v>-75710.23081155105</v>
       </c>
       <c r="E6" t="n">
-        <v>-140471.027674713</v>
+        <v>-117378.3634667048</v>
       </c>
       <c r="F6" t="n">
-        <v>9737.314743485389</v>
+        <v>9664.584015340024</v>
       </c>
       <c r="G6" t="n">
-        <v>26549.71701858562</v>
+        <v>26476.98629044029</v>
       </c>
       <c r="H6" t="n">
-        <v>26549.71701858564</v>
+        <v>26476.9862904403</v>
       </c>
       <c r="I6" t="n">
-        <v>4118.738777426101</v>
+        <v>7812.019232780959</v>
       </c>
       <c r="J6" t="n">
-        <v>-84434.95309037108</v>
+        <v>-148095.0608024697</v>
       </c>
       <c r="K6" t="n">
-        <v>26579.5122546191</v>
+        <v>26556.28791523646</v>
       </c>
       <c r="L6" t="n">
-        <v>-11765.25926871148</v>
+        <v>26556.28791523646</v>
       </c>
       <c r="M6" t="n">
-        <v>-130410.4230149832</v>
+        <v>-93455.49387397047</v>
       </c>
       <c r="N6" t="n">
-        <v>15674.38002858295</v>
+        <v>2685.811757584932</v>
       </c>
       <c r="O6" t="n">
-        <v>15674.38002858292</v>
+        <v>15674.38002858288</v>
       </c>
       <c r="P6" t="n">
-        <v>15674.38002858293</v>
+        <v>15674.38002858289</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>575.8017250670759</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1135.119712715511</v>
+        <v>1149.095686011105</v>
       </c>
       <c r="F4" t="n">
-        <v>1193.796420152534</v>
+        <v>1207.772393448127</v>
       </c>
       <c r="G4" t="n">
-        <v>1193.796420152534</v>
+        <v>1207.772393448127</v>
       </c>
       <c r="H4" t="n">
-        <v>1193.796420152534</v>
+        <v>1207.772393448127</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5058675469716</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>559.3179876484353</v>
+        <v>481.5804794032476</v>
       </c>
       <c r="F4" t="n">
         <v>58.67670743702229</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>84.46408323221181</v>
+        <v>70.48810993661839</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>151.5058675469716</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>559.3179876484353</v>
+        <v>481.5804794032476</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>151.5058675469716</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>559.3179876484353</v>
+        <v>481.5804794032476</v>
       </c>
       <c r="N4" t="n">
         <v>58.67670743702229</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.71868052833509</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,13 +27388,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>197.6406330439904</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.277894049992483</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>50.42419894990854</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>399.9667529740389</v>
+        <v>112.7111826904426</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>13.5570669585116</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>22.86827275269496</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>86.55764165756301</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>367.1112463296985</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>101.3962910481579</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.2357103387468</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>296.5687363523682</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>288.7962490401609</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>575.8017250670759</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>541.6075922040029</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>575.8017250670759</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,7 +35267,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>85.51751394880671</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>171.7313807679755</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>148.3763735807341</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1135.119712715511</v>
+        <v>1149.095686011105</v>
       </c>
       <c r="N11" t="n">
-        <v>1135.119712715511</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>15.30492137238525</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>42.33820301882406</v>
+        <v>35.16617100040912</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>301.5463146682409</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35808,16 +35808,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>197.4326257454067</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>35.16617100040912</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36045,16 +36045,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>248.6154713853943</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>9.630747991916223</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36197,10 +36197,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36674,22 +36674,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36835,13 +36835,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36911,22 +36911,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36999,7 +36999,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956015</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512943</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,13 +37321,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033057</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900419</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>447.2222511564761</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>30.7517069749847</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37558,10 +37558,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37792,16 +37792,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>901.1523322283551</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497184</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37950,7 +37950,7 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
@@ -38017,28 +38017,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831382</v>
+        <v>901.1523322283551</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>7.571051709083804</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38184,10 +38184,10 @@
         <v>480.3608287033061</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
